--- a/data_excel/data_tables/excels/P-匹配表.xlsx
+++ b/data_excel/data_tables/excels/P-匹配表.xlsx
@@ -1010,13 +1010,13 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
